--- a/docentes/Rosas Aguilar Claudia Leonor - Estadisticos 20242.xlsx
+++ b/docentes/Rosas Aguilar Claudia Leonor - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
   <si>
     <t>Mat</t>
   </si>
@@ -79,247 +79,64 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
     <t>ACEVEDO</t>
   </si>
   <si>
-    <t>MACHORRO</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>ESCOBAR</t>
+    <t>HUERTA</t>
   </si>
   <si>
     <t>SOLANO</t>
   </si>
   <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>CUICAHUA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>SORCIA</t>
-  </si>
-  <si>
-    <t>ARGUELLES</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>BERISTAIN</t>
-  </si>
-  <si>
-    <t>CARPINTEYRO</t>
-  </si>
-  <si>
-    <t>CAHUICH</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
+    <t>BONILLA</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
   </si>
   <si>
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>MENCIAS</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>XALAMIHUA</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>JUAN</t>
-  </si>
-  <si>
     <t>ESTRADA</t>
   </si>
   <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>OROZCO</t>
-  </si>
-  <si>
-    <t>GIL</t>
-  </si>
-  <si>
-    <t>TINOCO</t>
-  </si>
-  <si>
-    <t>SANTOS</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>ZAVALETA</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>CHAVEZ</t>
-  </si>
-  <si>
-    <t>ALVAREZ</t>
+    <t>PIEDRAS</t>
   </si>
   <si>
     <t>ADRIAN</t>
   </si>
   <si>
-    <t>CALIHUA</t>
-  </si>
-  <si>
-    <t>JORGE</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>TEZOCO</t>
-  </si>
-  <si>
-    <t>TENZOHUA</t>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>JOY JARA</t>
   </si>
   <si>
     <t>OSCAR ORLANDO</t>
   </si>
   <si>
-    <t>ALDAIR</t>
-  </si>
-  <si>
-    <t>GIOVANNI ARIEL</t>
+    <t>YERIEL</t>
   </si>
   <si>
     <t>KELLY ARIANA</t>
   </si>
   <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>ANGEL ALEXANDER</t>
-  </si>
-  <si>
-    <t>PABLO AZAEL</t>
-  </si>
-  <si>
-    <t>ANGEL MOISES</t>
-  </si>
-  <si>
-    <t>ALEXIS URIEL</t>
-  </si>
-  <si>
-    <t>SANTIAGO GAMALIEL</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>JOSHUA</t>
-  </si>
-  <si>
-    <t>JAIME ALEJANDRO</t>
-  </si>
-  <si>
-    <t>IVAN ARTURO</t>
-  </si>
-  <si>
-    <t>VICTOR HUGO</t>
-  </si>
-  <si>
-    <t>FRANCISCO EDUARDO</t>
-  </si>
-  <si>
-    <t>GLORIA MARIA</t>
-  </si>
-  <si>
-    <t>JESUS FABIAN</t>
-  </si>
-  <si>
-    <t>NATHANAEL</t>
-  </si>
-  <si>
-    <t>JOHANAN</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>JESUS ANTONIO</t>
-  </si>
-  <si>
-    <t>JAVIER</t>
-  </si>
-  <si>
-    <t>EDGAR</t>
-  </si>
-  <si>
-    <t>MARY JOSE</t>
-  </si>
-  <si>
-    <t>ISAAC</t>
-  </si>
-  <si>
-    <t>OSMAR EDUARDO</t>
-  </si>
-  <si>
-    <t>JOSE MARIA</t>
-  </si>
-  <si>
-    <t>JUAN MARTIN</t>
+    <t>NESTOR NOE</t>
   </si>
 </sst>
 </file>
@@ -720,7 +537,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -729,13 +546,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -892,18 +703,15 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
         <v>0</v>
       </c>
     </row>
@@ -918,16 +726,19 @@
         <v>37</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>78.38</v>
+      </c>
+      <c r="H3">
+        <v>7.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -941,16 +752,19 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>97.44</v>
+      </c>
+      <c r="H4">
+        <v>7.7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -964,16 +778,19 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>84.38</v>
+      </c>
+      <c r="H5">
+        <v>7.7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -987,16 +804,19 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>97.44</v>
+      </c>
+      <c r="H6">
+        <v>7.7</v>
       </c>
     </row>
   </sheetData>
@@ -1049,18 +869,15 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
         <v>0</v>
       </c>
     </row>
@@ -1087,7 +904,7 @@
         <v>78.38</v>
       </c>
       <c r="H3">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1113,7 +930,7 @@
         <v>97.44</v>
       </c>
       <c r="H4">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1130,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5">
-        <v>87.5</v>
+        <v>84.38</v>
       </c>
       <c r="H5">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1156,13 +973,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6">
-        <v>94.87</v>
+        <v>97.44</v>
       </c>
       <c r="H6">
         <v>7.7</v>
@@ -1175,7 +992,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1210,16 +1027,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>23330051920001</v>
+        <v>24330051920233</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1233,19 +1050,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>23330051920001</v>
+        <v>23330051920225</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1256,19 +1073,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>24330051920326</v>
+        <v>24330051920353</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -1279,48 +1096,48 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>24330051920002</v>
+        <v>23330051920001</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>24330051920103</v>
+        <v>24330051920145</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1328,13 +1145,13 @@
         <v>24330051920192</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -1343,604 +1160,29 @@
         <v>11</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>24330051920008</v>
+        <v>24330051920009</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>24330051920328</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>24330051920012</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>24330051920324</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>24330051920137</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>24330051920020</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>24330051920003</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>24330051920004</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>24330051920005</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>24330051920006</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>24330051920007</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>24330051920010</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>24330051920014</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>24330051920013</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>24330051920290</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>24330051920024</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>24330051920141</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>24330051920301</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>24330051920026</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>24330051920140</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>24330051920025</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>24330051920016</v>
-      </c>
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>24330051920327</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>24330051920027</v>
-      </c>
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>24330051920134</v>
-      </c>
-      <c r="B32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>24330051920128</v>
-      </c>
-      <c r="B33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33">
         <v>1</v>
       </c>
     </row>
